--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3868.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3868.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Safyaan M Sharif</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>29/06/2011</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3301</t>
+          <t>3301</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3307</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3308</t>
+          <t>3308</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3554</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3556</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3604</t>
+          <t>3604</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3611</t>
+          <t>3611</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +968,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>01/02/2014</t>
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3613</t>
+          <t>3613</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1067,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>12/09/2014</t>
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1114,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -1060,7 +1121,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1112,7 +1173,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3880</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1213,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -1160,7 +1220,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1212,7 +1272,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1252,7 +1312,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>14/08/2016</t>
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3919</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1359,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>16/08/2016</t>
@@ -1308,7 +1366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1360,7 +1418,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3933</t>
+          <t>3933</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1412,7 +1470,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1464,7 +1522,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3979</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1516,7 +1574,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1568,7 +1626,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4048</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1620,7 +1678,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4077</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1672,7 +1730,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1712,7 +1770,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>24/11/2017</t>
@@ -1720,7 +1777,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4090</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1772,7 +1829,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4091</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1824,7 +1881,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1876,7 +1933,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4118</t>
+          <t>4118</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1928,7 +1985,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4120</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1968,7 +2025,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>04/03/2018</t>
@@ -1976,7 +2032,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2028,7 +2084,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4142</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2080,7 +2136,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4153</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2132,7 +2188,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4155</t>
+          <t>4155</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2184,7 +2240,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2224,7 +2280,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>21/03/2018</t>
@@ -2232,7 +2287,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2272,7 +2327,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>10/06/2018</t>
@@ -2280,7 +2334,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2332,7 +2386,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2384,7 +2438,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2436,7 +2490,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4363</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2488,7 +2542,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2540,7 +2594,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4365</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2592,7 +2646,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4366</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2644,7 +2698,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4381</t>
+          <t>4381</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2696,7 +2750,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4384</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2748,7 +2802,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4461</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2788,7 +2842,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>25/09/2021</t>
@@ -2796,7 +2849,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4510</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2836,7 +2889,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>28/09/2021</t>
@@ -2844,7 +2896,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2884,7 +2936,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>02/10/2021</t>
@@ -2892,7 +2943,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4515</t>
+          <t>4515</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2932,7 +2983,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>09/04/2022</t>
@@ -2940,7 +2990,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4569</t>
+          <t>4569</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2992,7 +3042,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4570</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3032,7 +3082,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>13/04/2022</t>
@@ -3040,7 +3089,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4572</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3092,7 +3141,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4573</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3144,7 +3193,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4575</t>
+          <t>4575</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3196,7 +3245,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4576</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3248,7 +3297,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4581</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3288,7 +3337,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>10/07/2022</t>
@@ -3296,7 +3344,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4604</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3348,7 +3396,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4610</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3400,7 +3448,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4612</t>
+          <t>4612</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3440,7 +3488,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>17/07/2022</t>
@@ -3448,7 +3495,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4617</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3500,7 +3547,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3552,7 +3599,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4629</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3592,7 +3639,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>13/08/2022</t>
@@ -3600,7 +3646,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4631</t>
+          <t>4631</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3652,7 +3698,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3704,7 +3750,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4635</t>
+          <t>4635</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3744,7 +3790,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>01/12/2022</t>
@@ -3752,7 +3797,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4677</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3804,7 +3849,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4681</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3856,7 +3901,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4680</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3896,7 +3941,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>08/12/2022</t>
@@ -3904,7 +3948,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4684</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3944,7 +3988,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>15/02/2023</t>
@@ -3952,7 +3995,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4702</t>
+          <t>4702</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4004,7 +4047,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4705</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4056,7 +4099,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4706</t>
+          <t>4706</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4095,7 +4138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4117,7 +4160,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4154,7 +4197,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3301</t>
+          <t>3301</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4191,7 +4234,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3307</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4228,7 +4271,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3308</t>
+          <t>3308</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4265,7 +4308,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4302,7 +4345,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3554</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4339,7 +4382,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3556</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4376,7 +4419,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3604</t>
+          <t>3604</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4413,7 +4456,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3611</t>
+          <t>3611</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4450,7 +4493,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3613</t>
+          <t>3613</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4487,7 +4530,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4524,7 +4567,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4561,7 +4604,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4598,7 +4641,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3880</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4635,7 +4678,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4672,7 +4715,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4709,7 +4752,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3919</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4746,7 +4789,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4783,7 +4826,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3933</t>
+          <t>3933</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4820,7 +4863,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4857,7 +4900,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3979</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4894,7 +4937,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4931,7 +4974,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4048</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4968,7 +5011,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4077</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5005,7 +5048,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5042,7 +5085,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4090</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5079,7 +5122,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4091</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5116,7 +5159,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5153,7 +5196,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4118</t>
+          <t>4118</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5190,7 +5233,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4120</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5227,7 +5270,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5264,7 +5307,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4142</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5301,7 +5344,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4153</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5338,7 +5381,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4155</t>
+          <t>4155</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5375,7 +5418,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5412,7 +5455,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5449,7 +5492,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5486,7 +5529,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5523,7 +5566,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5560,7 +5603,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4363</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5597,7 +5640,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5634,7 +5677,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4365</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5671,7 +5714,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4366</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5708,7 +5751,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4381</t>
+          <t>4381</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5745,7 +5788,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4384</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5782,7 +5825,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4461</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5819,7 +5862,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4510</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5856,7 +5899,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5893,7 +5936,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4569</t>
+          <t>4569</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5930,7 +5973,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4570</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5967,7 +6010,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4572</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6004,7 +6047,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4573</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6041,7 +6084,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4575</t>
+          <t>4575</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6078,7 +6121,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4576</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6115,7 +6158,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4581</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6152,7 +6195,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4604</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6189,7 +6232,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4610</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6226,7 +6269,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4612</t>
+          <t>4612</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6263,7 +6306,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4617</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6300,7 +6343,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6337,7 +6380,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4629</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6374,7 +6417,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4631</t>
+          <t>4631</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6411,7 +6454,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6448,7 +6491,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4635</t>
+          <t>4635</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6485,7 +6528,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4677</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6522,7 +6565,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4681</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6559,7 +6602,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4680</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6596,7 +6639,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4684</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6633,7 +6676,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4702</t>
+          <t>4702</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6670,7 +6713,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4705</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6707,7 +6750,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4706</t>
+          <t>4706</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6733,6 +6776,541 @@
       <c r="G71" t="inlineStr">
         <is>
           <t>1/48</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4573</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.40%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>17.54%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18.26%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4617</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9.15%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.79%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.40%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.73%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4684</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4702</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4706</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3868.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3868.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6836,15 +6837,497 @@
           <t>4573</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.40%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>17.54%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18.26%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4617</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9.15%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.79%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.40%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.73%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4684</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4702</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4706</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4573</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6852,29 +7335,12 @@
           <t>4575</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.40%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6882,27 +7348,14 @@
           <t>4576</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>9</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.67%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -6912,27 +7365,14 @@
           <t>4581</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>9</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>17.54%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -6942,15 +7382,14 @@
           <t>4604</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -6960,29 +7399,12 @@
           <t>4610</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>11.11%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6990,29 +7412,12 @@
           <t>4612</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>18.26%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7020,17 +7425,12 @@
           <t>4617</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>9</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7038,29 +7438,12 @@
           <t>4625</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>9.15%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7068,27 +7451,14 @@
           <t>4629</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.29%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7100,13 +7470,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7114,27 +7477,14 @@
           <t>4632</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>9</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.79%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7146,13 +7496,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7160,15 +7503,14 @@
           <t>4677</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -7178,27 +7520,14 @@
           <t>4681</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>9</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.40%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7208,27 +7537,14 @@
           <t>4680</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7238,15 +7554,14 @@
           <t>4684</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7256,15 +7571,14 @@
           <t>4702</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -7274,29 +7588,12 @@
           <t>4705</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>11</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.81%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7306,13 +7603,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3868.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3868.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>29/06/2011</t>
@@ -969,6 +968,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>01/02/2014</t>
@@ -1068,6 +1068,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>12/09/2014</t>
@@ -1115,6 +1116,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -1214,6 +1216,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -1226,7 +1229,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1313,6 +1316,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>14/08/2016</t>
@@ -1360,6 +1364,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>16/08/2016</t>
@@ -1771,6 +1776,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>24/11/2017</t>
@@ -2026,6 +2032,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>04/03/2018</t>
@@ -2281,6 +2288,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>21/03/2018</t>
@@ -2328,6 +2336,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>10/06/2018</t>
@@ -2843,6 +2852,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>25/09/2021</t>
@@ -2890,6 +2900,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>28/09/2021</t>
@@ -2937,6 +2948,7 @@
           <t>48</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>02/10/2021</t>
@@ -2984,6 +2996,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>09/04/2022</t>
@@ -3083,6 +3096,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>13/04/2022</t>
@@ -3338,6 +3352,7 @@
           <t>56</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>10/07/2022</t>
@@ -3489,6 +3504,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>17/07/2022</t>
@@ -3640,6 +3656,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>13/08/2022</t>
@@ -3791,6 +3808,7 @@
           <t>65</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>01/12/2022</t>
@@ -3942,6 +3960,7 @@
           <t>68</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>08/12/2022</t>
@@ -3989,6 +4008,7 @@
           <t>69</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>15/02/2023</t>
@@ -6783,828 +6803,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4573</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4575</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.40%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.67%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>17.54%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4610</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>11.11%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4612</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>18.26%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4617</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>9.15%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.29%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4631</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.79%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4635</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4677</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4681</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.40%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4684</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4702</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4705</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>11</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.81%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4706</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4573</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4575</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4610</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4612</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4617</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4631</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4635</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4677</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4681</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4684</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4702</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4705</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4706</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>